--- a/backlog1.xlsx
+++ b/backlog1.xlsx
@@ -7,21 +7,19 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Definition of done" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Theme</t>
-  </si>
-  <si>
     <t>As a/an</t>
   </si>
   <si>
@@ -41,6 +39,153 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>new user</t>
+  </si>
+  <si>
+    <t>I can play my game with own account and others can play the same game on my phone with their own personal account</t>
+  </si>
+  <si>
+    <t>create a personal login with username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player </t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Select Level and Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start a new Trini Hangman game </t>
+  </si>
+  <si>
+    <t>have a feature which describes how to play the game</t>
+  </si>
+  <si>
+    <t>provide information about the game and the author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a rating feature to allow users to rate the game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hear local music playing in the background of the game </t>
+  </si>
+  <si>
+    <t>have the option of hints for each word or phrase to be spelt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see a congratulations message when I spell the word correctly. </t>
+  </si>
+  <si>
+    <t>see the correct word presented on the screen after being hanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move to higher levels of the Trini Hangman game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gain points for each word spelt correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user </t>
+  </si>
+  <si>
+    <t>have the option to save or continue game as desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit the game at any time when desired </t>
+  </si>
+  <si>
+    <t>game designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place familiar or popular images of Trinidad and Tobago as the background for the screen for that particular category </t>
+  </si>
+  <si>
+    <t>So for example if the category is music, the background can be an image of a steel pan</t>
+  </si>
+  <si>
+    <t>it adds to the local feel of the game and overall make it more enjoyable</t>
+  </si>
+  <si>
+    <t>be able to differentiate the letters that I have selected already from the ones that I am yet to select from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information feature </t>
+  </si>
+  <si>
+    <t>How to feature</t>
+  </si>
+  <si>
+    <t>Perhaps place this feature after the user plays the game</t>
+  </si>
+  <si>
+    <t>Can use Soca, Calypso etc</t>
+  </si>
+  <si>
+    <t>Create the option for the user to turn off the music when playing the game</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>definition of done</t>
+  </si>
+  <si>
+    <t>when I can login in with a username and password and be able to select options to either start or continue a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when I can select the level and category of game and be able to start playing </t>
   </si>
 </sst>
 </file>
@@ -56,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,13 +227,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -96,15 +261,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
-  <autoFilter ref="A1:I1048576"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0">
+  <autoFilter ref="A1:H1048576"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Theme"/>
     <tableColumn id="3" name="As a/an"/>
-    <tableColumn id="4" name="I want to…"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="1"/>
     <tableColumn id="5" name="so that.."/>
-    <tableColumn id="6" name="Notes "/>
+    <tableColumn id="6" name="Notes " dataDxfId="0"/>
     <tableColumn id="7" name="Priority"/>
     <tableColumn id="8" name="Estimation"/>
     <tableColumn id="9" name="Status"/>
@@ -400,37 +564,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -442,8 +607,301 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -452,4 +910,91 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="37.7265625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backlog1.xlsx
+++ b/backlog1.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Definition of done" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -174,18 +173,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>definition of done</t>
-  </si>
-  <si>
-    <t>when I can login in with a username and password and be able to select options to either start or continue a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when I can select the level and category of game and be able to start playing </t>
   </si>
 </sst>
 </file>
@@ -201,18 +188,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,20 +208,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -266,9 +246,9 @@
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="3" name="As a/an"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="1"/>
-    <tableColumn id="5" name="so that.."/>
-    <tableColumn id="6" name="Notes " dataDxfId="0"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="2"/>
+    <tableColumn id="5" name="so that.." dataDxfId="0"/>
+    <tableColumn id="6" name="Notes " dataDxfId="1"/>
     <tableColumn id="7" name="Priority"/>
     <tableColumn id="8" name="Estimation"/>
     <tableColumn id="9" name="Status"/>
@@ -567,7 +547,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,11 +555,11 @@
     <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="40.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -592,7 +572,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -688,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -857,7 +837,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -910,91 +890,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="37.7265625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backlog1.xlsx
+++ b/backlog1.xlsx
@@ -217,7 +217,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -241,13 +244,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H1048576"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="3" name="As a/an"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="2"/>
-    <tableColumn id="5" name="so that.." dataDxfId="0"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="3"/>
+    <tableColumn id="5" name="so that.." dataDxfId="2"/>
     <tableColumn id="6" name="Notes " dataDxfId="1"/>
     <tableColumn id="7" name="Priority"/>
     <tableColumn id="8" name="Estimation"/>
@@ -547,26 +550,26 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -578,17 +581,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
